--- a/tailieuthietke/tai lieu thiet ke csdl personweb.xlsx
+++ b/tailieuthietke/tai lieu thiet ke csdl personweb.xlsx
@@ -7,15 +7,91 @@
     <workbookView windowWidth="19860" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="posts " sheetId="1" r:id="rId1"/>
-    <sheet name="categories" sheetId="2" r:id="rId2"/>
+    <sheet name="categories" sheetId="2" r:id="rId1"/>
+    <sheet name="posts " sheetId="1" r:id="rId2"/>
+    <sheet name="comments" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+  <si>
+    <t>Table Name: categories</t>
+  </si>
+  <si>
+    <t>Description: Danh sach danh muc</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>column name</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>is nullable</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>desciption</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id bài viết </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiêu đề bài viết </t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES </t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>modified_date</t>
+  </si>
+  <si>
+    <t>Ngày cập nhật</t>
+  </si>
   <si>
     <t>Table Name: posts</t>
   </si>
@@ -23,75 +99,21 @@
     <t>Description: danh sach bai viet</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>column name</t>
-  </si>
-  <si>
-    <t>data type</t>
-  </si>
-  <si>
-    <t>is nullable</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>foreign key</t>
-  </si>
-  <si>
-    <t>desciption</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uniqueidentifier</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id bài viết </t>
-  </si>
-  <si>
     <t>category_id</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t xml:space="preserve">categories </t>
   </si>
   <si>
     <t xml:space="preserve">Id chuyên mục </t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiêu đề bài viết </t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">YES </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nội dung bài viết </t>
   </si>
   <si>
@@ -101,25 +123,16 @@
     <t xml:space="preserve">Ảnh đại diện bài viết </t>
   </si>
   <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Ngày tạo</t>
-  </si>
-  <si>
-    <t>modified_date</t>
-  </si>
-  <si>
-    <t>Ngày cập nhật</t>
-  </si>
-  <si>
-    <t>Table Name: categories</t>
-  </si>
-  <si>
-    <t>Description: Danh sach danh muc</t>
+    <t>Table Name: comments</t>
+  </si>
+  <si>
+    <t>Description: danh sach comment bai viet</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>posts</t>
   </si>
 </sst>
 </file>
@@ -127,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -172,6 +185,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -186,6 +207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -194,6 +223,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -202,7 +238,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,89 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -314,13 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -328,6 +319,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,61 +351,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,121 +495,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,15 +564,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -576,21 +580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +610,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -635,161 +648,158 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,11 +818,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1134,10 +1150,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="14.9" customWidth="1"/>
+    <col min="3" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="13.1" customWidth="1"/>
+    <col min="5" max="5" width="11.9" customWidth="1"/>
+    <col min="6" max="6" width="15.1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="16.8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1153,161 +1310,161 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1315,21 +1472,24 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="categories!A1" display="categories "/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="14.9" customWidth="1"/>
     <col min="3" max="3" width="11.6" customWidth="1"/>
@@ -1342,113 +1502,130 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1456,6 +1633,9 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="'posts '!A1" display="posts"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
